--- a/00_서류 제출/무기UI시스템_체크리스트.xlsx
+++ b/00_서류 제출/무기UI시스템_체크리스트.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\Yaho\개인 작업 폴더\윤도균\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chltl\Documents\GitHub\Yaho\00_서류 제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C844760-3A39-43A0-A898-17CD0BB83EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="330" windowWidth="23925" windowHeight="14670" xr2:uid="{8687DF83-6C1B-4C8C-8902-2A436024105A}"/>
+    <workbookView xWindow="1260" yWindow="336" windowWidth="23928" windowHeight="14676"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$5:$H$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,56 +524,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,94 +888,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADAC2DE-51F1-4DD0-A0CC-8B7FC8F25F6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="1"/>
+    <col min="4" max="4" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
       <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+    <row r="3" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
       <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+    <row r="4" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="5"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -989,11 +988,11 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1006,11 +1005,11 @@
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1023,11 +1022,11 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1040,11 +1039,11 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -1057,11 +1056,11 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1074,11 +1073,11 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>7</v>
       </c>
@@ -1091,11 +1090,11 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>8</v>
       </c>
@@ -1108,11 +1107,11 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>9</v>
       </c>
@@ -1125,11 +1124,11 @@
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>10</v>
       </c>
@@ -1142,13 +1141,13 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>11</v>
       </c>
@@ -1161,11 +1160,11 @@
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>12</v>
       </c>
@@ -1178,11 +1177,11 @@
       <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>13</v>
       </c>
@@ -1195,11 +1194,11 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>14</v>
       </c>
@@ -1212,11 +1211,11 @@
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>15</v>
       </c>
@@ -1229,11 +1228,11 @@
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>16</v>
       </c>
@@ -1246,11 +1245,11 @@
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>17</v>
       </c>
@@ -1263,11 +1262,11 @@
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>18</v>
       </c>
@@ -1280,11 +1279,11 @@
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>19</v>
       </c>
@@ -1297,11 +1296,11 @@
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>20</v>
       </c>
@@ -1314,11 +1313,11 @@
       <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>21</v>
       </c>
@@ -1331,11 +1330,11 @@
       <c r="E27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>22</v>
       </c>
@@ -1348,11 +1347,11 @@
       <c r="E28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>23</v>
       </c>
@@ -1365,11 +1364,11 @@
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>24</v>
       </c>
@@ -1382,160 +1381,160 @@
       <c r="E30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>27</v>
       </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>28</v>
       </c>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>29</v>
       </c>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>30</v>
       </c>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>31</v>
       </c>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>32</v>
       </c>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>33</v>
       </c>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="24"/>
-    </row>
-    <row r="53" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="24"/>
-    </row>
-    <row r="54" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="24"/>
-    </row>
-    <row r="55" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="24"/>
-    </row>
-    <row r="56" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="24"/>
-    </row>
-    <row r="57" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F57" s="24"/>
-    </row>
-    <row r="58" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F58" s="24"/>
-    </row>
-    <row r="59" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="24"/>
-    </row>
-    <row r="60" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F61" s="24"/>
-    </row>
-    <row r="62" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="24"/>
-    </row>
-    <row r="63" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="24"/>
-    </row>
-    <row r="64" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F64" s="24"/>
-    </row>
-    <row r="65" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="24"/>
-    </row>
-    <row r="66" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F66" s="24"/>
-    </row>
-    <row r="67" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="24"/>
-    </row>
-    <row r="68" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F68" s="24"/>
-    </row>
-    <row r="69" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="24"/>
-    </row>
-    <row r="70" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="24"/>
-    </row>
-    <row r="71" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="24"/>
-    </row>
-    <row r="72" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="24"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F72" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
